--- a/backend/JOBY_stock_signals.xlsx
+++ b/backend/JOBY_stock_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,51 +448,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1505986783998293</v>
+        <v>-0.1394732046781915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.770738999769708</v>
+        <v>3.212290837640407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.77906263519338</v>
+        <v>-4.871443344808182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.837462890388911</v>
+        <v>-0.8534910074822735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-4.878044275255045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1508258200915729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1505986783998293</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.770738999769708</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>28.77906263519338</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.837462890388911</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2025-05-30</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>-8.215965357894252</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-4.092073716583975</v>
       </c>
     </row>
   </sheetData>
